--- a/internet_usage_spain.xlsx
+++ b/internet_usage_spain.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sota/Dropbox/02 Company/Sotastica/Productos/Coaching/Logistica/Materiales/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{697F9C64-C46A-FA48-97E9-81374F38B42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495506AE-FD97-944E-BF3B-BF810CD181A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="2520" windowWidth="28040" windowHeight="17440" xr2:uid="{592B91D9-AE36-BF4B-B0DE-D6BB850FA838}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="internet_usage" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="internet_usage_spain_v2" localSheetId="0">Sheet1!$A$1:$D$2456</definedName>
+    <definedName name="internet_usage_spain_v2" localSheetId="1">internet_usage!$A$1:$D$2456</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{78AD227E-38A1-1441-81C5-AF27D4B14E3C}" name="internet_usage_spain_v2" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/sota/Dropbox/02 Company/Sotastica/Productos/Coaching/Logistica/Materiales/data/internet_usage_spain_v2.csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr sourceFile="/Users/sota/Dropbox/02 Company/Sotastica/Productos/Coaching/Logistica/Materiales/data/internet_usage_spain_v2.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4914" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4919" uniqueCount="17">
   <si>
     <t>internet_usage</t>
   </si>
@@ -89,6 +90,21 @@
   </si>
   <si>
     <t>High School</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>pepa</t>
+  </si>
+  <si>
+    <t>josefa</t>
+  </si>
+  <si>
+    <t>rufino</t>
   </si>
 </sst>
 </file>
@@ -443,10 +459,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905D9958-F8D6-A549-ACB1-4DD5D7A9701E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B988EEFE-4BCB-964E-BE46-76280F8407E6}">
   <dimension ref="A1:D2456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
